--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1582.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1582.xlsx
@@ -351,16 +351,16 @@
         <v>0.9749002112405134</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1582.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1582.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9749002112405134</v>
+        <v>0.5185682773590088</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>0.6510264277458191</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.9419897198677063</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3.975461006164551</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>4.130427837371826</v>
       </c>
     </row>
   </sheetData>
